--- a/utils/testes_validar.xlsx
+++ b/utils/testes_validar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Candidaturas\Programa neurodiversidade\SCRUM\Help System\Projecto\HelpSystem\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E5ACF-7DD4-4B95-98AC-330F1B12DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0E104-F14A-4C3E-82FD-51A9925021F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7368" yWindow="12" windowWidth="15696" windowHeight="9096" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitacao" sheetId="1" state="hidden" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -570,11 +570,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -698,29 +713,29 @@
   </dxfs>
   <tableStyles count="5">
     <tableStyle name="Solicitacao-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Resposta-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Usuario-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="Categoria-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="plano_testes-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -785,10 +800,11 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Plano_de_testes" displayName="Plano_de_testes" ref="A1:D15">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Nome do teste"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Resultado esperado"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Resultado esperado" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Resultado final"/>
   </tableColumns>
   <tableStyleInfo name="plano_testes-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -9651,19 +9667,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.21875" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="91.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9687,7 +9703,7 @@
       <c r="B2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="38"/>
@@ -9699,7 +9715,7 @@
       <c r="B3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="47" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="42"/>
@@ -9711,7 +9727,7 @@
       <c r="B4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="46" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="38"/>
@@ -9723,7 +9739,7 @@
       <c r="B5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="42"/>
@@ -9735,7 +9751,7 @@
       <c r="B6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="38"/>
@@ -9747,7 +9763,7 @@
       <c r="B7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="42"/>
@@ -9759,7 +9775,7 @@
       <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="38"/>
@@ -9771,7 +9787,7 @@
       <c r="B9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="42"/>
@@ -9783,19 +9799,19 @@
       <c r="B10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="46" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="47" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="42"/>
@@ -9807,7 +9823,7 @@
       <c r="B12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="46" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="38"/>
@@ -9819,19 +9835,19 @@
       <c r="B13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="42"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="38"/>
@@ -9839,8 +9855,56 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
